--- a/fastqFiles/fastq_10.27.20.xlsx
+++ b/fastqFiles/fastq_10.27.20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="118">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brent_1i-1_GTAC_1_SIC_Index2_08_TGAGGTT_GTGCTTAC_S41_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">na</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_1i-2_GTAC_2_SIC_Index2_08_GCTTAGA_GTGCTTAC_S42_L001_R1_001.fastq.gz</t>
@@ -476,8 +473,8 @@
   </sheetPr>
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1471,7 +1468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>68</v>
       </c>
@@ -1493,9 +1490,6 @@
       <c r="G29" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="I29" s="0" t="n">
         <v>2</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>63242</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1</v>
@@ -1538,7 +1532,7 @@
         <v>15732</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1564,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>1</v>
@@ -1573,7 +1567,7 @@
         <v>15253</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
@@ -1608,7 +1602,7 @@
         <v>17878</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,7 +1628,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>1</v>
@@ -1643,7 +1637,7 @@
         <v>16025</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>1</v>
@@ -1678,7 +1672,7 @@
         <v>19130</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1698,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>2.47524752475248</v>
@@ -1713,7 +1707,7 @@
         <v>18468</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>5</v>
@@ -1748,10 +1742,10 @@
         <v>1183</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>68</v>
       </c>
@@ -1773,9 +1767,6 @@
       <c r="G37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="I37" s="0" t="n">
         <v>2</v>
       </c>
@@ -1783,7 +1774,7 @@
         <v>8320</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1809,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>1</v>
@@ -1818,7 +1809,7 @@
         <v>15173</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>3.13479623824451</v>
@@ -1853,7 +1844,7 @@
         <v>13386</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1879,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>2.45098039215686</v>
@@ -1888,7 +1879,7 @@
         <v>14342</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,7 +1905,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>1</v>
@@ -1923,7 +1914,7 @@
         <v>20420</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,7 +1940,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>4.65116279069768</v>
@@ -1958,7 +1949,7 @@
         <v>15159</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1984,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>5</v>
@@ -1993,7 +1984,7 @@
         <v>326</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,7 +2010,7 @@
         <v>16</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>1.71526586620926</v>
@@ -2028,7 +2019,7 @@
         <v>12437</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2054,7 +2045,7 @@
         <v>16</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>4.21940928270042</v>
@@ -2063,7 +2054,7 @@
         <v>13479</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,7 +2080,7 @@
         <v>16</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>3.7037037037037</v>
@@ -2098,10 +2089,10 @@
         <v>13356</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>68</v>
       </c>
@@ -2123,9 +2114,6 @@
       <c r="G47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="I47" s="0" t="n">
         <v>2</v>
       </c>
@@ -2133,7 +2121,7 @@
         <v>3549</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>5</v>
@@ -2168,7 +2156,7 @@
         <v>308</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>5</v>
@@ -2203,7 +2191,7 @@
         <v>264</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>5</v>
@@ -2238,7 +2226,7 @@
         <v>64</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>5</v>
@@ -2273,7 +2261,7 @@
         <v>89</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>1</v>
@@ -2308,7 +2296,7 @@
         <v>18066</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>5</v>
@@ -2343,7 +2331,7 @@
         <v>14123</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
